--- a/ChilwaHealthModel/Dataset/Data2ML.xlsx
+++ b/ChilwaHealthModel/Dataset/Data2ML.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Documents\GitHub\ChilwaBasin\ZombaDisease1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Documents\GitHub\ChilwaBasin\ChilwaHealthModel\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8601C4E2-38B6-4A8D-AC6F-0D39365562A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A73733F-7D25-4921-ADE8-71A864E5BAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{CF86727E-EBAC-4FB3-9931-F75AC58A23DC}"/>
   </bookViews>
@@ -73,43 +73,43 @@
     <t>Population</t>
   </si>
   <si>
-    <t>Weekly Humidity Mean (%)</t>
+    <t>Zomba</t>
   </si>
   <si>
-    <t>Weekly Rainfall Sum (mm)</t>
+    <t>Weekly_Humidity_Mean_(%)</t>
   </si>
   <si>
-    <t>Weekly Minimum Temperature Mean (°C)</t>
+    <t>Weekly_Rainfall_Sum_(mm)</t>
   </si>
   <si>
-    <t>Weekly Maximum Temperature Mean (°C)</t>
+    <t>Weekly_Minimum_Temperature_Mean_(°C)</t>
   </si>
   <si>
-    <t>Mean Temperature (°C)</t>
+    <t>Weekly_Maximum_Temperature_Mean_(°C)</t>
   </si>
   <si>
-    <t>Cholera Cases</t>
+    <t>Mean_Temperature_(°C)</t>
   </si>
   <si>
-    <t>Malaria  Cases</t>
+    <t>Lake_Area_(km²)</t>
   </si>
   <si>
-    <t>Diarrhea Cases</t>
+    <t>NDVI_(km²)</t>
   </si>
   <si>
-    <t>Lake Area (km²)</t>
+    <t>Trophic_Class</t>
   </si>
   <si>
-    <t>Chlorophyll-a (µg/l)</t>
+    <t>Trophic_Class_Name</t>
   </si>
   <si>
-    <t>Trophic Class</t>
+    <t>Cholera_Cases</t>
   </si>
   <si>
-    <t>Trophic Class Name</t>
+    <t>Malaria_Cases</t>
   </si>
   <si>
-    <t>Zomba</t>
+    <t>Diarrhea_Cases</t>
   </si>
 </sst>
 </file>
@@ -582,9 +582,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C291CE0-DA4B-491E-906F-5ADA1CC56936}">
   <dimension ref="A1:Q349"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -621,40 +621,40 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="Q1" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E2" s="6">
         <v>779259</v>
@@ -724,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E3" s="6">
         <v>779259</v>
@@ -780,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6">
         <v>779259</v>
@@ -836,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E5" s="6">
         <v>779259</v>
@@ -892,7 +892,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E6" s="6">
         <v>779259</v>
@@ -948,7 +948,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E7" s="6">
         <v>779259</v>
@@ -1004,7 +1004,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E8" s="6">
         <v>779259</v>
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E9" s="6">
         <v>779259</v>
@@ -1116,7 +1116,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E10" s="6">
         <v>779259</v>
@@ -1172,7 +1172,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E11" s="6">
         <v>779259</v>
@@ -1228,7 +1228,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E12" s="6">
         <v>779259</v>
@@ -1284,7 +1284,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E13" s="6">
         <v>779259</v>
@@ -1340,7 +1340,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E14" s="6">
         <v>779259</v>
@@ -1396,7 +1396,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E15" s="6">
         <v>779259</v>
@@ -1452,7 +1452,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E16" s="6">
         <v>779259</v>
@@ -1508,7 +1508,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E17" s="6">
         <v>779259</v>
@@ -1564,7 +1564,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E18" s="6">
         <v>779259</v>
@@ -1620,7 +1620,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E19" s="6">
         <v>779259</v>
@@ -1676,7 +1676,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E20" s="6">
         <v>779259</v>
@@ -1732,7 +1732,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E21" s="6">
         <v>779259</v>
@@ -1788,7 +1788,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E22" s="6">
         <v>779259</v>
@@ -1844,7 +1844,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E23" s="6">
         <v>779259</v>
@@ -1900,7 +1900,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E24" s="6">
         <v>779259</v>
@@ -1956,7 +1956,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E25" s="6">
         <v>779259</v>
@@ -2012,7 +2012,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E26" s="6">
         <v>779259</v>
@@ -2068,7 +2068,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E27" s="6">
         <v>779259</v>
@@ -2124,7 +2124,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E28" s="6">
         <v>779259</v>
@@ -2180,7 +2180,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E29" s="6">
         <v>779259</v>
@@ -2236,7 +2236,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E30" s="6">
         <v>779259</v>
@@ -2292,7 +2292,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E31" s="6">
         <v>779259</v>
@@ -2348,7 +2348,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E32" s="6">
         <v>779259</v>
@@ -2404,7 +2404,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E33" s="6">
         <v>779259</v>
@@ -2460,7 +2460,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E34" s="6">
         <v>779259</v>
@@ -2516,7 +2516,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E35" s="6">
         <v>779259</v>
@@ -2572,7 +2572,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E36" s="6">
         <v>779259</v>
@@ -2628,7 +2628,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E37" s="6">
         <v>779259</v>
@@ -2684,7 +2684,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E38" s="6">
         <v>779259</v>
@@ -2740,7 +2740,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E39" s="6">
         <v>779259</v>
@@ -2796,7 +2796,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E40" s="6">
         <v>779259</v>
@@ -2852,7 +2852,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E41" s="6">
         <v>779259</v>
@@ -2908,7 +2908,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E42" s="6">
         <v>779259</v>
@@ -2964,7 +2964,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E43" s="6">
         <v>779259</v>
@@ -3020,7 +3020,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E44" s="6">
         <v>779259</v>
@@ -3076,7 +3076,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E45" s="6">
         <v>779259</v>
@@ -3132,7 +3132,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E46" s="6">
         <v>779259</v>
@@ -3188,7 +3188,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E47" s="6">
         <v>779259</v>
@@ -3244,7 +3244,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E48" s="6">
         <v>779259</v>
@@ -3300,7 +3300,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E49" s="6">
         <v>779259</v>
@@ -3356,7 +3356,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E50" s="6">
         <v>779259</v>
@@ -3412,7 +3412,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E51" s="6">
         <v>779259</v>
@@ -3468,7 +3468,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E52" s="6">
         <v>779259</v>
@@ -3524,7 +3524,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E53" s="6">
         <v>779259</v>
@@ -3580,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E54" s="12">
         <v>820309</v>
@@ -3636,7 +3636,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E55" s="12">
         <v>820309</v>
@@ -3692,7 +3692,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E56" s="12">
         <v>820309</v>
@@ -3748,7 +3748,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E57" s="12">
         <v>820309</v>
@@ -3804,7 +3804,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E58" s="12">
         <v>820309</v>
@@ -3860,7 +3860,7 @@
         <v>6</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E59" s="12">
         <v>820309</v>
@@ -3916,7 +3916,7 @@
         <v>7</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E60" s="12">
         <v>820309</v>
@@ -3972,7 +3972,7 @@
         <v>8</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E61" s="12">
         <v>820309</v>
@@ -4028,7 +4028,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E62" s="12">
         <v>820309</v>
@@ -4084,7 +4084,7 @@
         <v>10</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E63" s="12">
         <v>820309</v>
@@ -4140,7 +4140,7 @@
         <v>11</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E64" s="12">
         <v>820309</v>
@@ -4196,7 +4196,7 @@
         <v>12</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E65" s="12">
         <v>820309</v>
@@ -4252,7 +4252,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E66" s="12">
         <v>820309</v>
@@ -4308,7 +4308,7 @@
         <v>14</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E67" s="12">
         <v>820309</v>
@@ -4364,7 +4364,7 @@
         <v>15</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E68" s="12">
         <v>820309</v>
@@ -4420,7 +4420,7 @@
         <v>16</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E69" s="12">
         <v>820309</v>
@@ -4476,7 +4476,7 @@
         <v>17</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E70" s="12">
         <v>820309</v>
@@ -4532,7 +4532,7 @@
         <v>18</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E71" s="12">
         <v>820309</v>
@@ -4588,7 +4588,7 @@
         <v>19</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E72" s="12">
         <v>820309</v>
@@ -4644,7 +4644,7 @@
         <v>20</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E73" s="12">
         <v>820309</v>
@@ -4700,7 +4700,7 @@
         <v>21</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E74" s="12">
         <v>820309</v>
@@ -4756,7 +4756,7 @@
         <v>22</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E75" s="12">
         <v>820309</v>
@@ -4812,7 +4812,7 @@
         <v>23</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E76" s="12">
         <v>820309</v>
@@ -4868,7 +4868,7 @@
         <v>24</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E77" s="12">
         <v>820309</v>
@@ -4924,7 +4924,7 @@
         <v>25</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E78" s="12">
         <v>820309</v>
@@ -4980,7 +4980,7 @@
         <v>26</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E79" s="12">
         <v>820309</v>
@@ -5036,7 +5036,7 @@
         <v>27</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E80" s="12">
         <v>820309</v>
@@ -5092,7 +5092,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E81" s="12">
         <v>820309</v>
@@ -5148,7 +5148,7 @@
         <v>29</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E82" s="12">
         <v>820309</v>
@@ -5204,7 +5204,7 @@
         <v>30</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E83" s="12">
         <v>820309</v>
@@ -5260,7 +5260,7 @@
         <v>31</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E84" s="12">
         <v>820309</v>
@@ -5316,7 +5316,7 @@
         <v>32</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E85" s="12">
         <v>820309</v>
@@ -5372,7 +5372,7 @@
         <v>33</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E86" s="12">
         <v>820309</v>
@@ -5428,7 +5428,7 @@
         <v>34</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E87" s="12">
         <v>820309</v>
@@ -5484,7 +5484,7 @@
         <v>35</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E88" s="12">
         <v>820309</v>
@@ -5540,7 +5540,7 @@
         <v>36</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E89" s="12">
         <v>820309</v>
@@ -5596,7 +5596,7 @@
         <v>37</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E90" s="12">
         <v>820309</v>
@@ -5652,7 +5652,7 @@
         <v>38</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E91" s="12">
         <v>820309</v>
@@ -5708,7 +5708,7 @@
         <v>39</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E92" s="12">
         <v>820309</v>
@@ -5764,7 +5764,7 @@
         <v>40</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E93" s="12">
         <v>820309</v>
@@ -5820,7 +5820,7 @@
         <v>41</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E94" s="12">
         <v>820309</v>
@@ -5876,7 +5876,7 @@
         <v>42</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E95" s="12">
         <v>820309</v>
@@ -5932,7 +5932,7 @@
         <v>43</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E96" s="12">
         <v>820309</v>
@@ -5988,7 +5988,7 @@
         <v>44</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E97" s="12">
         <v>820309</v>
@@ -6044,7 +6044,7 @@
         <v>45</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E98" s="12">
         <v>820309</v>
@@ -6100,7 +6100,7 @@
         <v>46</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E99" s="12">
         <v>820309</v>
@@ -6156,7 +6156,7 @@
         <v>47</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E100" s="12">
         <v>820309</v>
@@ -6212,7 +6212,7 @@
         <v>48</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E101" s="12">
         <v>820309</v>
@@ -6268,7 +6268,7 @@
         <v>49</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E102" s="12">
         <v>820309</v>
@@ -6324,7 +6324,7 @@
         <v>50</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E103" s="12">
         <v>820309</v>
@@ -6380,7 +6380,7 @@
         <v>51</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E104" s="12">
         <v>820309</v>
@@ -6436,7 +6436,7 @@
         <v>52</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E105" s="12">
         <v>820309</v>
@@ -6492,7 +6492,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E106" s="12">
         <v>841775</v>
@@ -6548,7 +6548,7 @@
         <v>2</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E107" s="12">
         <v>841775</v>
@@ -6604,7 +6604,7 @@
         <v>3</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E108" s="12">
         <v>841775</v>
@@ -6660,7 +6660,7 @@
         <v>4</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E109" s="12">
         <v>841775</v>
@@ -6716,7 +6716,7 @@
         <v>5</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E110" s="12">
         <v>841775</v>
@@ -6772,7 +6772,7 @@
         <v>6</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E111" s="12">
         <v>841775</v>
@@ -6828,7 +6828,7 @@
         <v>7</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E112" s="12">
         <v>841775</v>
@@ -6884,7 +6884,7 @@
         <v>8</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E113" s="12">
         <v>841775</v>
@@ -6940,7 +6940,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E114" s="12">
         <v>841775</v>
@@ -6996,7 +6996,7 @@
         <v>10</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E115" s="12">
         <v>841775</v>
@@ -7052,7 +7052,7 @@
         <v>11</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E116" s="12">
         <v>841775</v>
@@ -7108,7 +7108,7 @@
         <v>12</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E117" s="12">
         <v>841775</v>
@@ -7164,7 +7164,7 @@
         <v>13</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E118" s="12">
         <v>841775</v>
@@ -7220,7 +7220,7 @@
         <v>14</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E119" s="12">
         <v>841775</v>
@@ -7276,7 +7276,7 @@
         <v>15</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E120" s="12">
         <v>841775</v>
@@ -7332,7 +7332,7 @@
         <v>16</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E121" s="12">
         <v>841775</v>
@@ -7388,7 +7388,7 @@
         <v>17</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E122" s="12">
         <v>841775</v>
@@ -7444,7 +7444,7 @@
         <v>18</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E123" s="12">
         <v>841775</v>
@@ -7500,7 +7500,7 @@
         <v>19</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E124" s="12">
         <v>841775</v>
@@ -7556,7 +7556,7 @@
         <v>20</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E125" s="12">
         <v>841775</v>
@@ -7612,7 +7612,7 @@
         <v>21</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E126" s="12">
         <v>841775</v>
@@ -7668,7 +7668,7 @@
         <v>22</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E127" s="12">
         <v>841775</v>
@@ -7724,7 +7724,7 @@
         <v>23</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E128" s="12">
         <v>841775</v>
@@ -7780,7 +7780,7 @@
         <v>24</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E129" s="12">
         <v>841775</v>
@@ -7836,7 +7836,7 @@
         <v>25</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E130" s="12">
         <v>841775</v>
@@ -7892,7 +7892,7 @@
         <v>26</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E131" s="12">
         <v>841775</v>
@@ -7948,7 +7948,7 @@
         <v>27</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E132" s="12">
         <v>841775</v>
@@ -8004,7 +8004,7 @@
         <v>28</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E133" s="12">
         <v>841775</v>
@@ -8060,7 +8060,7 @@
         <v>29</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E134" s="12">
         <v>841775</v>
@@ -8116,7 +8116,7 @@
         <v>30</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E135" s="12">
         <v>841775</v>
@@ -8172,7 +8172,7 @@
         <v>31</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E136" s="12">
         <v>841775</v>
@@ -8228,7 +8228,7 @@
         <v>32</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E137" s="12">
         <v>841775</v>
@@ -8284,7 +8284,7 @@
         <v>33</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E138" s="12">
         <v>841775</v>
@@ -8340,7 +8340,7 @@
         <v>34</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E139" s="12">
         <v>841775</v>
@@ -8396,7 +8396,7 @@
         <v>35</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E140" s="12">
         <v>841775</v>
@@ -8452,7 +8452,7 @@
         <v>36</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E141" s="12">
         <v>841775</v>
@@ -8508,7 +8508,7 @@
         <v>37</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E142" s="12">
         <v>841775</v>
@@ -8564,7 +8564,7 @@
         <v>38</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E143" s="12">
         <v>841775</v>
@@ -8620,7 +8620,7 @@
         <v>39</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E144" s="12">
         <v>841775</v>
@@ -8676,7 +8676,7 @@
         <v>40</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E145" s="12">
         <v>841775</v>
@@ -8732,7 +8732,7 @@
         <v>41</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E146" s="12">
         <v>841775</v>
@@ -8788,7 +8788,7 @@
         <v>42</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E147" s="12">
         <v>841775</v>
@@ -8844,7 +8844,7 @@
         <v>43</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E148" s="12">
         <v>841775</v>
@@ -8900,7 +8900,7 @@
         <v>44</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E149" s="12">
         <v>841775</v>
@@ -8956,7 +8956,7 @@
         <v>45</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E150" s="12">
         <v>841775</v>
@@ -9012,7 +9012,7 @@
         <v>46</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E151" s="12">
         <v>841775</v>
@@ -9068,7 +9068,7 @@
         <v>47</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E152" s="12">
         <v>841775</v>
@@ -9124,7 +9124,7 @@
         <v>48</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E153" s="12">
         <v>841775</v>
@@ -9180,7 +9180,7 @@
         <v>49</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E154" s="12">
         <v>841775</v>
@@ -9236,7 +9236,7 @@
         <v>50</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E155" s="12">
         <v>841775</v>
@@ -9292,7 +9292,7 @@
         <v>51</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E156" s="12">
         <v>841775</v>
@@ -9348,7 +9348,7 @@
         <v>52</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E157" s="12">
         <v>841775</v>
@@ -9404,7 +9404,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E158" s="12">
         <v>851757</v>
@@ -9460,7 +9460,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E159" s="12">
         <v>851757</v>
@@ -9516,7 +9516,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E160" s="12">
         <v>851757</v>
@@ -9572,7 +9572,7 @@
         <v>4</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E161" s="12">
         <v>851757</v>
@@ -9628,7 +9628,7 @@
         <v>5</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E162" s="12">
         <v>851757</v>
@@ -9684,7 +9684,7 @@
         <v>6</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E163" s="12">
         <v>851757</v>
@@ -9740,7 +9740,7 @@
         <v>7</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E164" s="12">
         <v>851757</v>
@@ -9796,7 +9796,7 @@
         <v>8</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E165" s="12">
         <v>851757</v>
@@ -9852,7 +9852,7 @@
         <v>9</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E166" s="12">
         <v>851757</v>
@@ -9908,7 +9908,7 @@
         <v>10</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E167" s="12">
         <v>851757</v>
@@ -9964,7 +9964,7 @@
         <v>11</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E168" s="12">
         <v>851757</v>
@@ -10020,7 +10020,7 @@
         <v>12</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E169" s="12">
         <v>851757</v>
@@ -10076,7 +10076,7 @@
         <v>13</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E170" s="12">
         <v>851757</v>
@@ -10132,7 +10132,7 @@
         <v>14</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E171" s="12">
         <v>851757</v>
@@ -10188,7 +10188,7 @@
         <v>15</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E172" s="12">
         <v>851757</v>
@@ -10244,7 +10244,7 @@
         <v>16</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E173" s="12">
         <v>851757</v>
@@ -10300,7 +10300,7 @@
         <v>17</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E174" s="12">
         <v>851757</v>
@@ -10356,7 +10356,7 @@
         <v>18</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E175" s="12">
         <v>851757</v>
@@ -10412,7 +10412,7 @@
         <v>19</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E176" s="12">
         <v>851757</v>
@@ -10468,7 +10468,7 @@
         <v>20</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E177" s="12">
         <v>851757</v>
@@ -10524,7 +10524,7 @@
         <v>21</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E178" s="12">
         <v>851757</v>
@@ -10580,7 +10580,7 @@
         <v>22</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E179" s="12">
         <v>851757</v>
@@ -10636,7 +10636,7 @@
         <v>23</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E180" s="12">
         <v>851757</v>
@@ -10692,7 +10692,7 @@
         <v>24</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E181" s="12">
         <v>851757</v>
@@ -10748,7 +10748,7 @@
         <v>25</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E182" s="12">
         <v>851757</v>
@@ -10804,7 +10804,7 @@
         <v>26</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E183" s="12">
         <v>851757</v>
@@ -10860,7 +10860,7 @@
         <v>27</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E184" s="12">
         <v>851757</v>
@@ -10916,7 +10916,7 @@
         <v>28</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E185" s="12">
         <v>851757</v>
@@ -10972,7 +10972,7 @@
         <v>29</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E186" s="12">
         <v>851757</v>
@@ -11028,7 +11028,7 @@
         <v>30</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E187" s="12">
         <v>851757</v>
@@ -11084,7 +11084,7 @@
         <v>31</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E188" s="12">
         <v>851757</v>
@@ -11140,7 +11140,7 @@
         <v>32</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E189" s="12">
         <v>851757</v>
@@ -11196,7 +11196,7 @@
         <v>33</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E190" s="12">
         <v>851757</v>
@@ -11252,7 +11252,7 @@
         <v>34</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E191" s="12">
         <v>851757</v>
@@ -11308,7 +11308,7 @@
         <v>35</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E192" s="12">
         <v>851757</v>
@@ -11364,7 +11364,7 @@
         <v>36</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E193" s="12">
         <v>851757</v>
@@ -11420,7 +11420,7 @@
         <v>37</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E194" s="12">
         <v>851757</v>
@@ -11476,7 +11476,7 @@
         <v>38</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E195" s="12">
         <v>851757</v>
@@ -11532,7 +11532,7 @@
         <v>39</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E196" s="12">
         <v>851757</v>
@@ -11588,7 +11588,7 @@
         <v>40</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E197" s="12">
         <v>851757</v>
@@ -11644,7 +11644,7 @@
         <v>41</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E198" s="12">
         <v>851757</v>
@@ -11700,7 +11700,7 @@
         <v>42</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E199" s="12">
         <v>851757</v>
@@ -11756,7 +11756,7 @@
         <v>43</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E200" s="12">
         <v>851757</v>
@@ -11812,7 +11812,7 @@
         <v>44</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E201" s="12">
         <v>851757</v>
@@ -11868,7 +11868,7 @@
         <v>45</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E202" s="12">
         <v>851757</v>
@@ -11924,7 +11924,7 @@
         <v>46</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E203" s="12">
         <v>851757</v>
@@ -11980,7 +11980,7 @@
         <v>47</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E204" s="12">
         <v>851757</v>
@@ -12036,7 +12036,7 @@
         <v>48</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E205" s="12">
         <v>851757</v>
@@ -12092,7 +12092,7 @@
         <v>49</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E206" s="12">
         <v>851757</v>
@@ -12148,7 +12148,7 @@
         <v>50</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E207" s="12">
         <v>851757</v>
@@ -12204,7 +12204,7 @@
         <v>51</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E208" s="12">
         <v>851757</v>
@@ -12260,7 +12260,7 @@
         <v>52</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E209" s="12">
         <v>851757</v>
@@ -12315,7 +12315,7 @@
         <v>1</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E210" s="12">
         <v>866647</v>
@@ -12371,7 +12371,7 @@
         <v>2</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E211" s="12">
         <v>866647</v>
@@ -12427,7 +12427,7 @@
         <v>3</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E212" s="12">
         <v>866647</v>
@@ -12483,7 +12483,7 @@
         <v>4</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E213" s="12">
         <v>866647</v>
@@ -12539,7 +12539,7 @@
         <v>5</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E214" s="12">
         <v>866647</v>
@@ -12595,7 +12595,7 @@
         <v>6</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E215" s="12">
         <v>866647</v>
@@ -12651,7 +12651,7 @@
         <v>7</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E216" s="12">
         <v>866647</v>
@@ -12707,7 +12707,7 @@
         <v>8</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E217" s="12">
         <v>866647</v>
@@ -12763,7 +12763,7 @@
         <v>9</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E218" s="12">
         <v>866647</v>
@@ -12819,7 +12819,7 @@
         <v>10</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E219" s="12">
         <v>866647</v>
@@ -12875,7 +12875,7 @@
         <v>11</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E220" s="12">
         <v>866647</v>
@@ -12931,7 +12931,7 @@
         <v>12</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E221" s="12">
         <v>866647</v>
@@ -12987,7 +12987,7 @@
         <v>13</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E222" s="12">
         <v>866647</v>
@@ -13043,7 +13043,7 @@
         <v>14</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E223" s="12">
         <v>866647</v>
@@ -13099,7 +13099,7 @@
         <v>15</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E224" s="12">
         <v>866647</v>
@@ -13155,7 +13155,7 @@
         <v>16</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E225" s="12">
         <v>866647</v>
@@ -13211,7 +13211,7 @@
         <v>17</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E226" s="12">
         <v>866647</v>
@@ -13267,7 +13267,7 @@
         <v>18</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E227" s="12">
         <v>866647</v>
@@ -13323,7 +13323,7 @@
         <v>19</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E228" s="12">
         <v>866647</v>
@@ -13379,7 +13379,7 @@
         <v>20</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E229" s="12">
         <v>866647</v>
@@ -13435,7 +13435,7 @@
         <v>21</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E230" s="12">
         <v>866647</v>
@@ -13491,7 +13491,7 @@
         <v>22</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E231" s="12">
         <v>866647</v>
@@ -13547,7 +13547,7 @@
         <v>23</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E232" s="12">
         <v>866647</v>
@@ -13603,7 +13603,7 @@
         <v>24</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E233" s="12">
         <v>866647</v>
@@ -13659,7 +13659,7 @@
         <v>25</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E234" s="12">
         <v>866647</v>
@@ -13715,7 +13715,7 @@
         <v>26</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E235" s="12">
         <v>866647</v>
@@ -13771,7 +13771,7 @@
         <v>27</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E236" s="12">
         <v>866647</v>
@@ -13827,7 +13827,7 @@
         <v>28</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E237" s="12">
         <v>866647</v>
@@ -13883,7 +13883,7 @@
         <v>29</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E238" s="12">
         <v>866647</v>
@@ -13939,7 +13939,7 @@
         <v>30</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E239" s="12">
         <v>866647</v>
@@ -13995,7 +13995,7 @@
         <v>31</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E240" s="12">
         <v>866647</v>
@@ -14051,7 +14051,7 @@
         <v>32</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E241" s="12">
         <v>866647</v>
@@ -14107,7 +14107,7 @@
         <v>33</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E242" s="12">
         <v>866647</v>
@@ -14163,7 +14163,7 @@
         <v>34</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E243" s="12">
         <v>866647</v>
@@ -14219,7 +14219,7 @@
         <v>35</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E244" s="12">
         <v>866647</v>
@@ -14275,7 +14275,7 @@
         <v>36</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E245" s="12">
         <v>866647</v>
@@ -14331,7 +14331,7 @@
         <v>37</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E246" s="12">
         <v>866647</v>
@@ -14387,7 +14387,7 @@
         <v>38</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E247" s="12">
         <v>866647</v>
@@ -14443,7 +14443,7 @@
         <v>39</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E248" s="12">
         <v>866647</v>
@@ -14499,7 +14499,7 @@
         <v>40</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E249" s="12">
         <v>866647</v>
@@ -14555,7 +14555,7 @@
         <v>41</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E250" s="12">
         <v>866647</v>
@@ -14611,7 +14611,7 @@
         <v>42</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E251" s="12">
         <v>866647</v>
@@ -14667,7 +14667,7 @@
         <v>43</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E252" s="12">
         <v>866647</v>
@@ -14723,7 +14723,7 @@
         <v>44</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E253" s="12">
         <v>866647</v>
@@ -14779,7 +14779,7 @@
         <v>45</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E254" s="12">
         <v>866647</v>
@@ -14835,7 +14835,7 @@
         <v>46</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E255" s="12">
         <v>866647</v>
@@ -14891,7 +14891,7 @@
         <v>47</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E256" s="12">
         <v>866647</v>
@@ -14947,7 +14947,7 @@
         <v>48</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E257" s="12">
         <v>866647</v>
@@ -15003,7 +15003,7 @@
         <v>49</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E258" s="12">
         <v>866647</v>
@@ -15059,7 +15059,7 @@
         <v>50</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E259" s="12">
         <v>866647</v>
@@ -15115,7 +15115,7 @@
         <v>51</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E260" s="12">
         <v>866647</v>
@@ -15171,7 +15171,7 @@
         <v>52</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E261" s="12">
         <v>866647</v>
